--- a/ui.xlsx
+++ b/ui.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91E6457-AEBC-46E5-8275-0A50380F3167}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3CA894-B896-43E9-AE1B-C3E5836FD8B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>TextField</t>
   </si>
@@ -45,19 +45,25 @@
     <t>Employee</t>
   </si>
   <si>
-    <t>jsx</t>
-  </si>
-  <si>
-    <t>filled</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>variant</t>
-  </si>
-  <si>
-    <t>Name</t>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>jsx.attributes</t>
+  </si>
+  <si>
+    <t>jsx.name</t>
+  </si>
+  <si>
+    <t>variant="contained" color="primary"</t>
+  </si>
+  <si>
+    <t>Employer</t>
+  </si>
+  <si>
+    <t>label="Employee Name"</t>
+  </si>
+  <si>
+    <t>label="Employer Name"</t>
   </si>
 </sst>
 </file>
@@ -101,9 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,17 +392,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.88671875" style="3" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -403,14 +411,12 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -419,19 +425,35 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{EEA88966-3D0D-4F3D-870F-F9F53B98585B}">
-      <formula1>"TextField,Select,Radio,Checkbox,Button"</formula1>
-    </dataValidation>
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{5E1E7FC3-44A0-4A2D-9FBA-505478041853}">
       <formula1>"filled,outlined"</formula1>
     </dataValidation>
